--- a/Data/subject_list.xlsx
+++ b/Data/subject_list.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\pc\Dokumenter\PhD\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABBAB471-FC92-43D6-B1AD-F8D6080ECEA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{765C91CF-098E-4056-BD7B-88CFED2D4994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1845" yWindow="4725" windowWidth="28770" windowHeight="15420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23016" yWindow="5016" windowWidth="23016" windowHeight="12336" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="by student count" sheetId="1" r:id="rId1"/>
-    <sheet name="by alphabetical order" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="by alphabetical order" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="470">
   <si>
     <t>n_valid</t>
   </si>
@@ -1040,6 +1041,402 @@
   </si>
   <si>
     <t>Seq</t>
+  </si>
+  <si>
+    <t>Social studies 10th year level (SAF0010)</t>
+  </si>
+  <si>
+    <t>Natural sciences 10th year level (NAT0010)</t>
+  </si>
+  <si>
+    <t>Mathematics 10th year level (MAT0010)</t>
+  </si>
+  <si>
+    <t>English 10th year, oral (ENG0013)</t>
+  </si>
+  <si>
+    <t>English 10th year, written (ENG0012)</t>
+  </si>
+  <si>
+    <t>Norwegian 10th year level, oral (NOR0216)</t>
+  </si>
+  <si>
+    <t>Norwegian primary goal 10th year, written (NOR0214)</t>
+  </si>
+  <si>
+    <t>Arts and Crafts 10th year level (KHV0010)</t>
+  </si>
+  <si>
+    <t>Physical education 10th year level (KRO0020)</t>
+  </si>
+  <si>
+    <t>Music 10th year level (MUS0010)</t>
+  </si>
+  <si>
+    <t>Food and Health 10th year level (MHE0010)</t>
+  </si>
+  <si>
+    <t>Christianity, religion, beliefs and ethics (KRLE), 10th year level (RLE0030)</t>
+  </si>
+  <si>
+    <t>Norwegian second-choice target 10th year, written (NOR0215)</t>
+  </si>
+  <si>
+    <t>Physical activity and health (VAL0010)</t>
+  </si>
+  <si>
+    <t>Spanish I, 10th year (FSP0132)</t>
+  </si>
+  <si>
+    <t>German I, 10th year (FSP0162)</t>
+  </si>
+  <si>
+    <t>Saddle and stage (VAL0001)</t>
+  </si>
+  <si>
+    <t>Nature, environment and outdoor activities (VAL0028)</t>
+  </si>
+  <si>
+    <t>Design and redesign (VAL0013)</t>
+  </si>
+  <si>
+    <t>Efforts for others (VAL0037)</t>
+  </si>
+  <si>
+    <t>Specialization in English 10th year level (ENG0029)</t>
+  </si>
+  <si>
+    <t>Traffic (VAL0040)</t>
+  </si>
+  <si>
+    <t>Technology in practice (VAL0022)</t>
+  </si>
+  <si>
+    <t>Working life subjects, 10th year level (ARB0010)</t>
+  </si>
+  <si>
+    <t>French I, 10th year (FSP0042)</t>
+  </si>
+  <si>
+    <t>Production of goods and services (VAL0007)</t>
+  </si>
+  <si>
+    <t>Media and Information (VAL0004)</t>
+  </si>
+  <si>
+    <t>Programming (VAL0043)</t>
+  </si>
+  <si>
+    <t>Research in practice (VAL0016)</t>
+  </si>
+  <si>
+    <t>International cooperation (VAL0019)</t>
+  </si>
+  <si>
+    <t>Specialization in Norwegian, 10th year level (NOR0068)</t>
+  </si>
+  <si>
+    <t>Tourism (VAL0034)</t>
+  </si>
+  <si>
+    <t>Specialization in mathematics 10th year level (MAT0014)</t>
+  </si>
+  <si>
+    <t>Democracy in Practice (VAL0031)</t>
+  </si>
+  <si>
+    <t>Living Cultural Heritage (VAL0025)</t>
+  </si>
+  <si>
+    <t>Science Module 4 (NATV004)</t>
+  </si>
+  <si>
+    <t>Social Studies Module 4 (SAFV004)</t>
+  </si>
+  <si>
+    <t>Christianity knowledge with knowledge of philosophy, religion and beliefs, 10th year level (KRDK020)</t>
+  </si>
+  <si>
+    <t>English module 4, written (ENGV005)</t>
+  </si>
+  <si>
+    <t>English module 4, oral (ENGV006)</t>
+  </si>
+  <si>
+    <t>Norwegian for linguistic minorities module 4, written (NORV012)</t>
+  </si>
+  <si>
+    <t>Norwegian for linguistic minorities module 4, oral (NORV013)</t>
+  </si>
+  <si>
+    <t>Food and Health, 10th year level (MHEM010)</t>
+  </si>
+  <si>
+    <t>Mathematics module 4 - common (MATV006)</t>
+  </si>
+  <si>
+    <t>Christianity, religious and philosophical knowledge 10th year level (KRLK140)</t>
+  </si>
+  <si>
+    <t>Food and health, Sami plan, 10th year level (MHE0020)</t>
+  </si>
+  <si>
+    <t>Natural sciences, Sami plan, 10th year level (NAT0020)</t>
+  </si>
+  <si>
+    <t>Duodji 10th year (KHV0020)</t>
+  </si>
+  <si>
+    <t>Music, Sami plan, 10th year level (MUS0020)</t>
+  </si>
+  <si>
+    <t>Social sciences, Sami plan, 10th year level (SAF0020)</t>
+  </si>
+  <si>
+    <t>Christianity knowledge for Catholic schools 10th year level (KRLK130)</t>
+  </si>
+  <si>
+    <t>Development of young athletes, 10th year level (UUIP010)</t>
+  </si>
+  <si>
+    <t>English written 10th year level (ENGM012)</t>
+  </si>
+  <si>
+    <t>Arts and Crafts, 10th year level (KHVM010)</t>
+  </si>
+  <si>
+    <t>Music, year 10 (MUSM010)</t>
+  </si>
+  <si>
+    <t>Natural sciences, 10th year (NATM010)</t>
+  </si>
+  <si>
+    <t>English oral 10th year level (ENGM013)</t>
+  </si>
+  <si>
+    <t>Physical education, 10th year level (KROM010)</t>
+  </si>
+  <si>
+    <t>Mathematics, 10th year level (MATM010)</t>
+  </si>
+  <si>
+    <t>Norwegian primary goal, 10th year level (NORM014)</t>
+  </si>
+  <si>
+    <t>Oral Norwegian, 10th year level (NORM016)</t>
+  </si>
+  <si>
+    <t>Christianity, religious and philosophical knowledge 10th year level (KRLK060)</t>
+  </si>
+  <si>
+    <t>Social sciences, 10th year level (SAMM010)</t>
+  </si>
+  <si>
+    <t>Norwegian second language, 10th year level (NORM015)</t>
+  </si>
+  <si>
+    <t>Mathematics module 4Y (MATV005)</t>
+  </si>
+  <si>
+    <t>Christianity, religion, beliefs and ethics (KRLE), Sami, 10th year level (RLE0040)</t>
+  </si>
+  <si>
+    <t>Religion, beliefs and ethics 10th year level (RLEM010)</t>
+  </si>
+  <si>
+    <t>Mandarin I, year 10 (FSP0093)</t>
+  </si>
+  <si>
+    <t>Sami as a first language, Northern Sami 1, 10th year level, written (SFS0012)</t>
+  </si>
+  <si>
+    <t>Sami as a first language, Northern Sami 1, 10th year level, oral (SFS0013)</t>
+  </si>
+  <si>
+    <t>Norwegian for pupils with Sami as their first language 10th year level, written (NOR0041)</t>
+  </si>
+  <si>
+    <t>Norwegian for pupils with Sami as their first language 10th year level, oral (NOR0042)</t>
+  </si>
+  <si>
+    <t>Norwegian Module 4, written (NORV005)</t>
+  </si>
+  <si>
+    <t>Norwegian Module 4, oral (NORV006)</t>
+  </si>
+  <si>
+    <t>Russian I, 10th year level (FSP0123)</t>
+  </si>
+  <si>
+    <t>Christianity knowledge 10th year level (KRLK120)</t>
+  </si>
+  <si>
+    <t>Spanish I, 10th year (FSPM006)</t>
+  </si>
+  <si>
+    <t>Mathematics 10th year, oral (MAT0011)</t>
+  </si>
+  <si>
+    <t>Specialization in English 10th year (ENGM610)</t>
+  </si>
+  <si>
+    <t>Sami as a second language, Sami 3, Northern Sami, 10th year level, written (SAS0051)</t>
+  </si>
+  <si>
+    <t>Sami as second language, Sami 3, Northern Sami, 10th year level, oral (SAS0052)</t>
+  </si>
+  <si>
+    <t>Finnish as a second language 10th year level, written (FIN0012)</t>
+  </si>
+  <si>
+    <t>Finnish as a second language 10th year level, oral (FIN0013)</t>
+  </si>
+  <si>
+    <t>Sami as second language, Sami 2, Northern Sami, 10th year level, written (SAS0012)</t>
+  </si>
+  <si>
+    <t>Sami as second language, Sami 2, Northern Sami, 10th year level, oral (SAS0013)</t>
+  </si>
+  <si>
+    <t>Christianity knowledge with religious and philosophical orientation 10th year level (KRLK150)</t>
+  </si>
+  <si>
+    <t>French I, 10th year (FSPM003)</t>
+  </si>
+  <si>
+    <t>Urdu I, Year 10 (FSP0165)</t>
+  </si>
+  <si>
+    <t>Finnish I, 10th year (FSP0039)</t>
+  </si>
+  <si>
+    <t>Sign Language I, Year 10 (FSP0147)</t>
+  </si>
+  <si>
+    <t>Specialization in Sami 10th year (SFS0042)</t>
+  </si>
+  <si>
+    <t>German I, 10th year (FSPM009)</t>
+  </si>
+  <si>
+    <t>Education choice (UTV0010)</t>
+  </si>
+  <si>
+    <t>Arabic I, 10th year (FSP0021)</t>
+  </si>
+  <si>
+    <t>Mathematics module 4S (MATV004)</t>
+  </si>
+  <si>
+    <t>Drama and rhythmics for the hearing impaired 10th year (MUS0030)</t>
+  </si>
+  <si>
+    <t>Norwegian Sign Language 10th year, oral (NOR0065)</t>
+  </si>
+  <si>
+    <t>English for the hearing impaired 10th year, oral (ENG0026)</t>
+  </si>
+  <si>
+    <t>Norwegian Sign Language 10th year level (NOR0064)</t>
+  </si>
+  <si>
+    <t>English for the hearing impaired 10th year level, written (ENG0025)</t>
+  </si>
+  <si>
+    <t>Norwegian for pupils with sign language 10th year level (NOR0052)</t>
+  </si>
+  <si>
+    <t>Arts and Crafts, 1st year (KHVM001)</t>
+  </si>
+  <si>
+    <t>Physical education, 1st year (KROM001)</t>
+  </si>
+  <si>
+    <t>Sami as second language, Sami 2, Lule Sami, 10th year level, written (SAS0038)</t>
+  </si>
+  <si>
+    <t>Sami as a second language, Sami 2, Lule Sami, 10th year level, oral (SAS0039)</t>
+  </si>
+  <si>
+    <t>Sami as a second language, Sami 2, Southern Sami, 10th year level, written (SAS0025)</t>
+  </si>
+  <si>
+    <t>Sami as second language, Sami 2, Southern Sami, 10th year level, oral (SAS0026)</t>
+  </si>
+  <si>
+    <t>Music 8th year (MUS0008)</t>
+  </si>
+  <si>
+    <t>Physical education 10th year (KRO0010)</t>
+  </si>
+  <si>
+    <t>Norwegian 8th year level, written (NOR0208)</t>
+  </si>
+  <si>
+    <t>Sami as a first language, Southern Sami 1, 10th year level, written (SFS0025)</t>
+  </si>
+  <si>
+    <t>Sami as a first language, Southern Sami 1, 10th year, oral (SFS0026)</t>
+  </si>
+  <si>
+    <t>Food and Health, 1st year (MHEM001)</t>
+  </si>
+  <si>
+    <t>Norwegian 9th year level, oral (NOR0213)</t>
+  </si>
+  <si>
+    <t>English 8th year (ENG0008)</t>
+  </si>
+  <si>
+    <t>Music 9th year (MUS0009)</t>
+  </si>
+  <si>
+    <t>French I, 8th year (FSPM001)</t>
+  </si>
+  <si>
+    <t>Norwegian for pupils with Sami as their first language 9th year level, oral (NOR0040)</t>
+  </si>
+  <si>
+    <t>Critical Thinking (VALH001)</t>
+  </si>
+  <si>
+    <t>Specialization in English 8th year (ENGM608)</t>
+  </si>
+  <si>
+    <t>North Sami I, 10th year level (FSP0102)</t>
+  </si>
+  <si>
+    <t>Spanish I, 9th year (FSP0131)</t>
+  </si>
+  <si>
+    <t>Arts and Crafts 8th year (KHV0008)</t>
+  </si>
+  <si>
+    <t>Physical education 8th year (KRO0018)</t>
+  </si>
+  <si>
+    <t>Food and Health 9th year level (MHE0009)</t>
+  </si>
+  <si>
+    <t>Music, year 9 (MUSM009)</t>
+  </si>
+  <si>
+    <t>Specialization in Norwegian, 10th year level (NORM610)</t>
+  </si>
+  <si>
+    <t>Religion, beliefs and ethics, year 10 (RLE0010)</t>
+  </si>
+  <si>
+    <t>Sami as second language, Sami 3, Southern Sami, 10th year level, written (SAS0064)</t>
+  </si>
+  <si>
+    <t>Sami as second language, Sami 3, Southern Sami, 10th year level, oral (SAS0065)</t>
+  </si>
+  <si>
+    <t>Sami as second language, Sami 3, Lule Sami, 10th year level, written (SAS0077)</t>
+  </si>
+  <si>
+    <t>Sami as a second language, Sami 3, Lule Sami, 10th year level, oral (SAS0078)</t>
   </si>
 </sst>
 </file>
@@ -1059,7 +1456,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1102,6 +1499,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1115,7 +1518,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1160,6 +1563,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1478,8 +1887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F201"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1488,7 +1897,8 @@
     <col min="2" max="2" width="10" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.28515625" style="2" customWidth="1"/>
     <col min="4" max="4" width="6.85546875" style="2" customWidth="1"/>
-    <col min="5" max="6" width="44.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="78.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="86" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="11.5703125" style="2"/>
   </cols>
   <sheetData>
@@ -1528,6 +1938,9 @@
       <c r="E2" s="2" t="s">
         <v>205</v>
       </c>
+      <c r="F2" s="2" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
@@ -1545,6 +1958,9 @@
       <c r="E3" s="2" t="s">
         <v>206</v>
       </c>
+      <c r="F3" s="2" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
@@ -1562,6 +1978,9 @@
       <c r="E4" s="2" t="s">
         <v>207</v>
       </c>
+      <c r="F4" s="2" t="s">
+        <v>340</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
@@ -1579,6 +1998,9 @@
       <c r="E5" s="2" t="s">
         <v>208</v>
       </c>
+      <c r="F5" s="2" t="s">
+        <v>341</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
@@ -1596,6 +2018,9 @@
       <c r="E6" s="2" t="s">
         <v>209</v>
       </c>
+      <c r="F6" s="2" t="s">
+        <v>342</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
@@ -1613,6 +2038,9 @@
       <c r="E7" s="2" t="s">
         <v>210</v>
       </c>
+      <c r="F7" s="2" t="s">
+        <v>343</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
@@ -1630,6 +2058,9 @@
       <c r="E8" s="2" t="s">
         <v>211</v>
       </c>
+      <c r="F8" s="2" t="s">
+        <v>344</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
@@ -1647,6 +2078,9 @@
       <c r="E9" s="2" t="s">
         <v>212</v>
       </c>
+      <c r="F9" s="2" t="s">
+        <v>345</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
@@ -1664,6 +2098,9 @@
       <c r="E10" s="2" t="s">
         <v>213</v>
       </c>
+      <c r="F10" s="2" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
@@ -1681,6 +2118,9 @@
       <c r="E11" s="2" t="s">
         <v>214</v>
       </c>
+      <c r="F11" s="2" t="s">
+        <v>347</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
@@ -1698,6 +2138,9 @@
       <c r="E12" s="2" t="s">
         <v>215</v>
       </c>
+      <c r="F12" s="2" t="s">
+        <v>348</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
@@ -1715,6 +2158,9 @@
       <c r="E13" s="2" t="s">
         <v>216</v>
       </c>
+      <c r="F13" s="2" t="s">
+        <v>349</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
@@ -1732,6 +2178,9 @@
       <c r="E14" s="2" t="s">
         <v>217</v>
       </c>
+      <c r="F14" s="2" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
@@ -1749,6 +2198,9 @@
       <c r="E15" s="2" t="s">
         <v>218</v>
       </c>
+      <c r="F15" s="2" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
@@ -1766,8 +2218,11 @@
       <c r="E16" s="2" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F16" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1783,8 +2238,11 @@
       <c r="E17" s="2" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F17" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1800,8 +2258,11 @@
       <c r="E18" s="2" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F18" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1817,8 +2278,11 @@
       <c r="E19" s="2" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F19" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1834,8 +2298,11 @@
       <c r="E20" s="2" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F20" s="2" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1851,8 +2318,11 @@
       <c r="E21" s="2" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F21" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1868,8 +2338,11 @@
       <c r="E22" s="2" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F22" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1885,8 +2358,11 @@
       <c r="E23" s="2" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F23" s="2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1902,8 +2378,11 @@
       <c r="E24" s="2" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F24" s="2" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1919,8 +2398,11 @@
       <c r="E25" s="2" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F25" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1936,8 +2418,11 @@
       <c r="E26" s="2" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F26" s="2" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1953,8 +2438,11 @@
       <c r="E27" s="2" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F27" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1970,8 +2458,11 @@
       <c r="E28" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F28" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1987,8 +2478,11 @@
       <c r="E29" s="2" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F29" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -2004,8 +2498,11 @@
       <c r="E30" s="2" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F30" s="2" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -2021,8 +2518,11 @@
       <c r="E31" s="2" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F31" s="2" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -2038,8 +2538,11 @@
       <c r="E32" s="2" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F32" s="2" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -2055,8 +2558,11 @@
       <c r="E33" s="2" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F33" s="2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -2072,8 +2578,11 @@
       <c r="E34" s="2" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F34" s="2" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -2089,8 +2598,11 @@
       <c r="E35" s="2" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F35" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -2106,8 +2618,11 @@
       <c r="E36" s="2" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F36" s="2" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -2123,8 +2638,11 @@
       <c r="E37" s="2" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F37" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -2140,8 +2658,11 @@
       <c r="E38" s="2" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F38" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -2157,8 +2678,11 @@
       <c r="E39" s="2" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F39" s="2" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -2174,8 +2698,11 @@
       <c r="E40" s="2" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F40" s="2" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -2191,8 +2718,11 @@
       <c r="E41" s="2" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F41" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -2208,8 +2738,11 @@
       <c r="E42" s="2" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F42" s="2" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -2225,8 +2758,11 @@
       <c r="E43" s="2" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F43" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -2242,8 +2778,11 @@
       <c r="E44" s="2" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F44" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -2259,8 +2798,11 @@
       <c r="E45" s="2" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F45" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -2276,8 +2818,11 @@
       <c r="E46" s="2" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F46" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -2293,8 +2838,11 @@
       <c r="E47" s="2" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F47" s="2" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -2310,8 +2858,11 @@
       <c r="E48" s="2" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F48" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -2327,8 +2878,11 @@
       <c r="E49" s="2" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F49" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -2344,8 +2898,11 @@
       <c r="E50" s="2" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F50" s="2" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -2361,8 +2918,11 @@
       <c r="E51" s="2" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F51" s="2" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -2378,8 +2938,11 @@
       <c r="E52" s="2" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F52" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -2395,8 +2958,11 @@
       <c r="E53" s="2" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F53" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -2412,8 +2978,11 @@
       <c r="E54" s="2" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F54" s="2" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -2429,8 +2998,11 @@
       <c r="E55" s="2" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F55" s="2" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -2446,8 +3018,11 @@
       <c r="E56" s="2" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F56" s="2" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -2463,8 +3038,11 @@
       <c r="E57" s="2" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F57" s="2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -2480,8 +3058,11 @@
       <c r="E58" s="2" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F58" s="2" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -2497,8 +3078,11 @@
       <c r="E59" s="2" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F59" s="2" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -2514,8 +3098,11 @@
       <c r="E60" s="2" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F60" s="2" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -2531,8 +3118,11 @@
       <c r="E61" s="2" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F61" s="2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -2548,8 +3138,11 @@
       <c r="E62" s="2" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F62" s="2" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -2565,8 +3158,11 @@
       <c r="E63" s="2" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F63" s="2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -2582,8 +3178,11 @@
       <c r="E64" s="2" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F64" s="2" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -2599,8 +3198,11 @@
       <c r="E65" s="2" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F65" s="2" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -2616,8 +3218,11 @@
       <c r="E66" s="2" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F66" s="2" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -2633,8 +3238,11 @@
       <c r="E67" s="2" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F67" s="2" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -2650,8 +3258,11 @@
       <c r="E68" s="2" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F68" s="2" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -2667,8 +3278,11 @@
       <c r="E69" s="2" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F69" s="2" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -2684,8 +3298,11 @@
       <c r="E70" s="2" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F70" s="2" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -2701,8 +3318,11 @@
       <c r="E71" s="2" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F71" s="2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -2718,8 +3338,11 @@
       <c r="E72" s="2" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F72" s="2" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -2735,8 +3358,11 @@
       <c r="E73" s="2" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F73" s="2" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -2752,8 +3378,11 @@
       <c r="E74" s="2" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F74" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -2769,8 +3398,11 @@
       <c r="E75" s="2" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F75" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -2786,8 +3418,11 @@
       <c r="E76" s="2" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F76" s="2" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -2803,8 +3438,11 @@
       <c r="E77" s="2" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F77" s="2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -2820,8 +3458,11 @@
       <c r="E78" s="2" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F78" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -2837,8 +3478,11 @@
       <c r="E79" s="2" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F79" s="2" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -2854,8 +3498,11 @@
       <c r="E80" s="2" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F80" s="2" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -2871,8 +3518,11 @@
       <c r="E81" s="2" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F81" s="2" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -2888,8 +3538,11 @@
       <c r="E82" s="2" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F82" s="2" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -2905,8 +3558,11 @@
       <c r="E83" s="2" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F83" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -2922,8 +3578,11 @@
       <c r="E84" s="2" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F84" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -2939,8 +3598,11 @@
       <c r="E85" s="2" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F85" s="2" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -2956,8 +3618,11 @@
       <c r="E86" s="2" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F86" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -2973,8 +3638,11 @@
       <c r="E87" s="2" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F87" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -2990,8 +3658,11 @@
       <c r="E88" s="2" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F88" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -3007,8 +3678,11 @@
       <c r="E89" s="2" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F89" s="2" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -3024,8 +3698,11 @@
       <c r="E90" s="2" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F90" s="2" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -3041,8 +3718,11 @@
       <c r="E91" s="2" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F91" s="2" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -3058,8 +3738,11 @@
       <c r="E92" s="2" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F92" s="2" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -3075,8 +3758,11 @@
       <c r="E93" s="2" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F93" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -3092,8 +3778,11 @@
       <c r="E94" s="2" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F94" s="2" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -3109,8 +3798,11 @@
       <c r="E95" s="2" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F95" s="2" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -3126,8 +3818,11 @@
       <c r="E96" s="2" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F96" s="2" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -3143,8 +3838,11 @@
       <c r="E97" s="2" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F97" s="2" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -3160,8 +3858,11 @@
       <c r="E98" s="2" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F98" s="2" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -3177,8 +3878,11 @@
       <c r="E99" s="2" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F99" s="2" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -3194,8 +3898,11 @@
       <c r="E100" s="2" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F100" s="2" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -3209,7 +3916,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -3225,8 +3932,11 @@
       <c r="E102" s="2" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F102" s="2" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -3242,8 +3952,11 @@
       <c r="E103" s="2" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F103" s="2" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -3259,8 +3972,11 @@
       <c r="E104" s="2" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F104" s="2" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -3276,8 +3992,11 @@
       <c r="E105" s="2" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F105" s="2" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -3293,8 +4012,11 @@
       <c r="E106" s="2" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F106" s="2" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -3310,8 +4032,11 @@
       <c r="E107" s="2" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F107" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -3327,8 +4052,11 @@
       <c r="E108" s="2" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F108" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -3344,8 +4072,11 @@
       <c r="E109" s="2" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F109" s="2" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -3361,8 +4092,11 @@
       <c r="E110" s="2" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F110" s="2" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -3376,7 +4110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -3390,7 +4124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -3404,7 +4138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -3418,7 +4152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -3434,8 +4168,11 @@
       <c r="E115" s="2" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F115" s="2" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -3451,8 +4188,11 @@
       <c r="E116" s="2" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F116" s="2" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -3468,8 +4208,11 @@
       <c r="E117" s="2" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F117" s="2" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -3485,8 +4228,11 @@
       <c r="E118" s="2" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F118" s="2" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -3500,7 +4246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -3516,8 +4262,11 @@
       <c r="E120" s="2" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F120" s="2" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -3533,8 +4282,11 @@
       <c r="E121" s="2" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F121" s="2" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -3550,8 +4302,11 @@
       <c r="E122" s="2" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F122" s="2" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -3567,8 +4322,11 @@
       <c r="E123" s="2" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F123" s="2" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -3584,8 +4342,11 @@
       <c r="E124" s="2" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F124" s="2" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -3601,8 +4362,11 @@
       <c r="E125" s="2" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F125" s="2" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -3618,8 +4382,11 @@
       <c r="E126" s="2" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F126" s="2" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -3635,8 +4402,11 @@
       <c r="E127" s="2" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F127" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -3652,8 +4422,11 @@
       <c r="E128" s="2" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F128" s="2" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -3669,8 +4442,11 @@
       <c r="E129" s="2" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F129" s="2" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -3686,8 +4462,11 @@
       <c r="E130" s="2" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F130" s="2" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -3703,8 +4482,11 @@
       <c r="E131" s="2" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F131" s="2" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -3720,8 +4502,11 @@
       <c r="E132" s="2" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F132" s="2" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -3737,8 +4522,11 @@
       <c r="E133" s="2" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F133" s="2" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -3754,8 +4542,11 @@
       <c r="E134" s="2" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F134" s="2" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -3771,8 +4562,11 @@
       <c r="E135" s="2" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F135" s="2" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -3788,8 +4582,11 @@
       <c r="E136" s="2" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F136" s="2" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -3805,8 +4602,11 @@
       <c r="E137" s="2" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F137" s="2" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -3822,8 +4622,11 @@
       <c r="E138" s="2" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F138" s="2" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -3839,8 +4642,11 @@
       <c r="E139" s="2" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F139" s="2" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -3854,7 +4660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -3868,7 +4674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -3882,7 +4688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -3896,7 +4702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -4752,11 +5558,3747 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86535E3C-402E-45BA-B91F-5268FA910A2C}">
+  <dimension ref="A1:F201"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="E103" sqref="E103"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="78.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="86" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="11.5703125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>165</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>166</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>167</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>168</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>169</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>170</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>24</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="2">
+        <v>6997</v>
+      </c>
+      <c r="D8" s="2">
+        <v>11.54</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>141</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>171</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>172</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="6">
+        <v>121</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C12" s="7">
+        <v>1</v>
+      </c>
+      <c r="D12" s="7">
+        <v>0</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="6">
+        <v>154</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="C13" s="7">
+        <v>0</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="6">
+        <v>157</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="C14" s="7">
+        <v>0</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="6">
+        <v>5</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="7">
+        <v>59047</v>
+      </c>
+      <c r="D15" s="7">
+        <v>97.41</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="6">
+        <v>4</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="7">
+        <v>59148</v>
+      </c>
+      <c r="D16" s="7">
+        <v>97.57</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="6">
+        <v>101</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C17" s="7">
+        <v>6</v>
+      </c>
+      <c r="D17" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="6">
+        <v>98</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C18" s="7">
+        <v>8</v>
+      </c>
+      <c r="D18" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="6">
+        <v>21</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="7">
+        <v>8297</v>
+      </c>
+      <c r="D19" s="7">
+        <v>13.69</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="6">
+        <v>173</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="C20" s="7">
+        <v>0</v>
+      </c>
+      <c r="D20" s="7">
+        <v>0</v>
+      </c>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="6">
+        <v>53</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="7">
+        <v>134</v>
+      </c>
+      <c r="D21" s="7">
+        <v>0.22</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="6">
+        <v>57</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="7">
+        <v>134</v>
+      </c>
+      <c r="D22" s="7">
+        <v>0.22</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="6">
+        <v>126</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C23" s="7">
+        <v>1</v>
+      </c>
+      <c r="D23" s="7">
+        <v>0</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="6">
+        <v>79</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="7">
+        <v>40</v>
+      </c>
+      <c r="D24" s="7">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="6">
+        <v>39</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="7">
+        <v>424</v>
+      </c>
+      <c r="D25" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="6">
+        <v>40</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="7">
+        <v>424</v>
+      </c>
+      <c r="D26" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>174</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>82</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C28" s="2">
+        <v>32</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>83</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29" s="2">
+        <v>32</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>94</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C30" s="2">
+        <v>15</v>
+      </c>
+      <c r="D30" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>89</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" s="2">
+        <v>19</v>
+      </c>
+      <c r="D31" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>25</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" s="2">
+        <v>6484</v>
+      </c>
+      <c r="D32" s="2">
+        <v>10.7</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>68</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" s="2">
+        <v>74</v>
+      </c>
+      <c r="D33" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>127</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C34" s="2">
+        <v>1</v>
+      </c>
+      <c r="D34" s="2">
+        <v>0</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>75</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" s="2">
+        <v>53</v>
+      </c>
+      <c r="D35" s="2">
+        <v>0.09</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>128</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C36" s="2">
+        <v>1</v>
+      </c>
+      <c r="D36" s="2">
+        <v>0</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>15</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" s="2">
+        <v>17632</v>
+      </c>
+      <c r="D37" s="2">
+        <v>29.09</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>175</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C38" s="2">
+        <v>0</v>
+      </c>
+      <c r="D38" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>90</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C39" s="2">
+        <v>19</v>
+      </c>
+      <c r="D39" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>16</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" s="2">
+        <v>15582</v>
+      </c>
+      <c r="D40" s="2">
+        <v>25.71</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>88</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C41" s="2">
+        <v>20</v>
+      </c>
+      <c r="D41" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>176</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C42" s="2">
+        <v>0</v>
+      </c>
+      <c r="D42" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>123</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C43" s="2">
+        <v>1</v>
+      </c>
+      <c r="D43" s="2">
+        <v>0</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>87</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C44" s="2">
+        <v>21</v>
+      </c>
+      <c r="D44" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>177</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C45" s="2">
+        <v>0</v>
+      </c>
+      <c r="D45" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>77</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C46" s="2">
+        <v>46</v>
+      </c>
+      <c r="D46" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>92</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C47" s="2">
+        <v>16</v>
+      </c>
+      <c r="D47" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>178</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C48" s="2">
+        <v>0</v>
+      </c>
+      <c r="D48" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>179</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C49" s="2">
+        <v>0</v>
+      </c>
+      <c r="D49" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>111</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C50" s="2">
+        <v>2</v>
+      </c>
+      <c r="D50" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>147</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C51" s="2">
+        <v>0</v>
+      </c>
+      <c r="D51" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>156</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C52" s="2">
+        <v>0</v>
+      </c>
+      <c r="D52" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
+        <v>112</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C53" s="2">
+        <v>2</v>
+      </c>
+      <c r="D53" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
+        <v>113</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C54" s="2">
+        <v>2</v>
+      </c>
+      <c r="D54" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" s="1">
+        <v>155</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C55" s="2">
+        <v>0</v>
+      </c>
+      <c r="D55" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="1">
+        <v>148</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C56" s="2">
+        <v>0</v>
+      </c>
+      <c r="D56" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>149</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C57" s="2">
+        <v>0</v>
+      </c>
+      <c r="D57" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="1">
+        <v>118</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C58" s="2">
+        <v>1</v>
+      </c>
+      <c r="D58" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="1">
+        <v>100</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C59" s="2">
+        <v>6</v>
+      </c>
+      <c r="D59" s="2">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="1">
+        <v>110</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C60" s="2">
+        <v>2</v>
+      </c>
+      <c r="D60" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>150</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C61" s="2">
+        <v>0</v>
+      </c>
+      <c r="D61" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" s="1">
+        <v>151</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C62" s="2">
+        <v>0</v>
+      </c>
+      <c r="D62" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" s="14">
+        <v>129</v>
+      </c>
+      <c r="B63" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="C63" s="15">
+        <v>1</v>
+      </c>
+      <c r="D63" s="15">
+        <v>0</v>
+      </c>
+      <c r="E63" s="15" t="s">
+        <v>327</v>
+      </c>
+      <c r="F63" s="15" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" s="14">
+        <v>8</v>
+      </c>
+      <c r="B64" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C64" s="15">
+        <v>57811</v>
+      </c>
+      <c r="D64" s="15">
+        <v>95.37</v>
+      </c>
+      <c r="E64" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="F64" s="15" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" s="14">
+        <v>48</v>
+      </c>
+      <c r="B65" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C65" s="15">
+        <v>190</v>
+      </c>
+      <c r="D65" s="15">
+        <v>0.31</v>
+      </c>
+      <c r="E65" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="F65" s="15" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" s="14">
+        <v>103</v>
+      </c>
+      <c r="B66" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="C66" s="15">
+        <v>6</v>
+      </c>
+      <c r="D66" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="E66" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="F66" s="15" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" s="14">
+        <v>54</v>
+      </c>
+      <c r="B67" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C67" s="15">
+        <v>134</v>
+      </c>
+      <c r="D67" s="15">
+        <v>0.22</v>
+      </c>
+      <c r="E67" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="F67" s="15" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" s="1">
+        <v>38</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C68" s="2">
+        <v>425</v>
+      </c>
+      <c r="D68" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" s="1">
+        <v>62</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C69" s="2">
+        <v>128</v>
+      </c>
+      <c r="D69" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" s="1">
+        <v>76</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C70" s="2">
+        <v>51</v>
+      </c>
+      <c r="D70" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
+        <v>51</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C71" s="2">
+        <v>167</v>
+      </c>
+      <c r="D71" s="2">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" s="1">
+        <v>45</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C72" s="2">
+        <v>295</v>
+      </c>
+      <c r="D72" s="2">
+        <v>0.49</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" s="1">
+        <v>86</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C73" s="2">
+        <v>24</v>
+      </c>
+      <c r="D73" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" s="8">
+        <v>114</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C74" s="9">
+        <v>2</v>
+      </c>
+      <c r="D74" s="9">
+        <v>0</v>
+      </c>
+      <c r="E74" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="F74" s="9" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" s="8">
+        <v>180</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="C75" s="9">
+        <v>0</v>
+      </c>
+      <c r="D75" s="9">
+        <v>0</v>
+      </c>
+      <c r="E75" s="9"/>
+      <c r="F75" s="9"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" s="8">
+        <v>130</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="C76" s="9">
+        <v>1</v>
+      </c>
+      <c r="D76" s="9">
+        <v>0</v>
+      </c>
+      <c r="E76" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="F76" s="9" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" s="8">
+        <v>9</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C77" s="9">
+        <v>57731</v>
+      </c>
+      <c r="D77" s="9">
+        <v>95.24</v>
+      </c>
+      <c r="E77" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="F77" s="9" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" s="8">
+        <v>181</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="C78" s="9">
+        <v>0</v>
+      </c>
+      <c r="D78" s="9">
+        <v>0</v>
+      </c>
+      <c r="E78" s="9"/>
+      <c r="F78" s="9"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79" s="8">
+        <v>104</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C79" s="9">
+        <v>6</v>
+      </c>
+      <c r="D79" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="E79" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="F79" s="9" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80" s="8">
+        <v>58</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C80" s="9">
+        <v>133</v>
+      </c>
+      <c r="D80" s="9">
+        <v>0.22</v>
+      </c>
+      <c r="E80" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="F80" s="9" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81" s="16">
+        <v>159</v>
+      </c>
+      <c r="B81" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="C81" s="17">
+        <v>0</v>
+      </c>
+      <c r="D81" s="17">
+        <v>0</v>
+      </c>
+      <c r="E81" s="17"/>
+      <c r="F81" s="17"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" s="16">
+        <v>182</v>
+      </c>
+      <c r="B82" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="C82" s="17">
+        <v>0</v>
+      </c>
+      <c r="D82" s="17">
+        <v>0</v>
+      </c>
+      <c r="E82" s="17"/>
+      <c r="F82" s="17"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" s="16">
+        <v>3</v>
+      </c>
+      <c r="B83" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C83" s="17">
+        <v>59184</v>
+      </c>
+      <c r="D83" s="17">
+        <v>97.63</v>
+      </c>
+      <c r="E83" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="F83" s="17" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A84" s="16">
+        <v>78</v>
+      </c>
+      <c r="B84" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="C84" s="17">
+        <v>43</v>
+      </c>
+      <c r="D84" s="17">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E84" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="F84" s="17" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A85" s="16">
+        <v>33</v>
+      </c>
+      <c r="B85" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C85" s="17">
+        <v>932</v>
+      </c>
+      <c r="D85" s="17">
+        <v>1.54</v>
+      </c>
+      <c r="E85" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="F85" s="17" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86" s="16">
+        <v>183</v>
+      </c>
+      <c r="B86" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="C86" s="17">
+        <v>0</v>
+      </c>
+      <c r="D86" s="17">
+        <v>0</v>
+      </c>
+      <c r="E86" s="17"/>
+      <c r="F86" s="17"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A87" s="16">
+        <v>184</v>
+      </c>
+      <c r="B87" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="C87" s="17">
+        <v>0</v>
+      </c>
+      <c r="D87" s="17">
+        <v>0</v>
+      </c>
+      <c r="E87" s="17"/>
+      <c r="F87" s="17"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A88" s="16">
+        <v>59</v>
+      </c>
+      <c r="B88" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C88" s="17">
+        <v>133</v>
+      </c>
+      <c r="D88" s="17">
+        <v>0.22</v>
+      </c>
+      <c r="E88" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="F88" s="17" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A89" s="16">
+        <v>152</v>
+      </c>
+      <c r="B89" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="C89" s="17">
+        <v>0</v>
+      </c>
+      <c r="D89" s="17">
+        <v>0</v>
+      </c>
+      <c r="E89" s="17"/>
+      <c r="F89" s="17"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A90" s="16">
+        <v>95</v>
+      </c>
+      <c r="B90" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="C90" s="17">
+        <v>11</v>
+      </c>
+      <c r="D90" s="17">
+        <v>0.02</v>
+      </c>
+      <c r="E90" s="17" t="s">
+        <v>299</v>
+      </c>
+      <c r="F90" s="17" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A91" s="16">
+        <v>65</v>
+      </c>
+      <c r="B91" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C91" s="17">
+        <v>110</v>
+      </c>
+      <c r="D91" s="17">
+        <v>0.18</v>
+      </c>
+      <c r="E91" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="F91" s="17" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A92" s="16">
+        <v>44</v>
+      </c>
+      <c r="B92" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C92" s="17">
+        <v>306</v>
+      </c>
+      <c r="D92" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="E92" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="F92" s="17" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A93" s="16">
+        <v>143</v>
+      </c>
+      <c r="B93" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="C93" s="17">
+        <v>0</v>
+      </c>
+      <c r="D93" s="17">
+        <v>0</v>
+      </c>
+      <c r="E93" s="17"/>
+      <c r="F93" s="17"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A94" s="10">
+        <v>131</v>
+      </c>
+      <c r="B94" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="C94" s="11">
+        <v>1</v>
+      </c>
+      <c r="D94" s="11">
+        <v>0</v>
+      </c>
+      <c r="E94" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="F94" s="11" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A95" s="10">
+        <v>11</v>
+      </c>
+      <c r="B95" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C95" s="11">
+        <v>57491</v>
+      </c>
+      <c r="D95" s="11">
+        <v>94.84</v>
+      </c>
+      <c r="E95" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="F95" s="11" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A96" s="10">
+        <v>46</v>
+      </c>
+      <c r="B96" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C96" s="11">
+        <v>192</v>
+      </c>
+      <c r="D96" s="11">
+        <v>0.32</v>
+      </c>
+      <c r="E96" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="F96" s="11" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A97" s="10">
+        <v>119</v>
+      </c>
+      <c r="B97" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C97" s="11">
+        <v>1</v>
+      </c>
+      <c r="D97" s="11">
+        <v>0</v>
+      </c>
+      <c r="E97" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="F97" s="11" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A98" s="10">
+        <v>43</v>
+      </c>
+      <c r="B98" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C98" s="11">
+        <v>326</v>
+      </c>
+      <c r="D98" s="11">
+        <v>0.54</v>
+      </c>
+      <c r="E98" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="F98" s="11" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A99" s="4">
+        <v>109</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C99" s="5">
+        <v>3</v>
+      </c>
+      <c r="D99" s="5">
+        <v>0</v>
+      </c>
+      <c r="E99" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="F99" s="5" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A100" s="4">
+        <v>122</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C100" s="5">
+        <v>1</v>
+      </c>
+      <c r="D100" s="5">
+        <v>0</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="F100" s="5" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A101" s="4">
+        <v>10</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C101" s="5">
+        <v>57526</v>
+      </c>
+      <c r="D101" s="5">
+        <v>94.9</v>
+      </c>
+      <c r="E101" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="F101" s="5" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A102" s="4">
+        <v>49</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C102" s="5">
+        <v>190</v>
+      </c>
+      <c r="D102" s="5">
+        <v>0.31</v>
+      </c>
+      <c r="E102" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="F102" s="5" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A103" s="4">
+        <v>96</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C103" s="5">
+        <v>9</v>
+      </c>
+      <c r="D103" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="E103" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="F103" s="5" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A104" s="4">
+        <v>185</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C104" s="5">
+        <v>0</v>
+      </c>
+      <c r="D104" s="5">
+        <v>0</v>
+      </c>
+      <c r="E104" s="5"/>
+      <c r="F104" s="5"/>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A105" s="4">
+        <v>132</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C105" s="5">
+        <v>1</v>
+      </c>
+      <c r="D105" s="5">
+        <v>0</v>
+      </c>
+      <c r="E105" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="F105" s="5" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A106" s="4">
+        <v>55</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C106" s="5">
+        <v>134</v>
+      </c>
+      <c r="D106" s="5">
+        <v>0.22</v>
+      </c>
+      <c r="E106" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="F106" s="5" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A107" s="12">
+        <v>160</v>
+      </c>
+      <c r="B107" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="C107" s="13">
+        <v>0</v>
+      </c>
+      <c r="D107" s="13">
+        <v>0</v>
+      </c>
+      <c r="E107" s="13"/>
+      <c r="F107" s="13"/>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A108" s="12">
+        <v>2</v>
+      </c>
+      <c r="B108" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C108" s="13">
+        <v>59452</v>
+      </c>
+      <c r="D108" s="13">
+        <v>98.08</v>
+      </c>
+      <c r="E108" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="F108" s="13" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A109" s="12">
+        <v>47</v>
+      </c>
+      <c r="B109" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C109" s="13">
+        <v>191</v>
+      </c>
+      <c r="D109" s="13">
+        <v>0.32</v>
+      </c>
+      <c r="E109" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="F109" s="13" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A110" s="12">
+        <v>158</v>
+      </c>
+      <c r="B110" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="C110" s="13">
+        <v>0</v>
+      </c>
+      <c r="D110" s="13">
+        <v>0</v>
+      </c>
+      <c r="E110" s="13"/>
+      <c r="F110" s="13"/>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A111" s="12">
+        <v>56</v>
+      </c>
+      <c r="B111" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C111" s="13">
+        <v>134</v>
+      </c>
+      <c r="D111" s="13">
+        <v>0.22</v>
+      </c>
+      <c r="E111" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="F111" s="13" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A112" s="12">
+        <v>146</v>
+      </c>
+      <c r="B112" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="C112" s="13">
+        <v>0</v>
+      </c>
+      <c r="D112" s="13">
+        <v>0</v>
+      </c>
+      <c r="E112" s="13"/>
+      <c r="F112" s="13"/>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A113" s="12">
+        <v>144</v>
+      </c>
+      <c r="B113" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="C113" s="13">
+        <v>0</v>
+      </c>
+      <c r="D113" s="13">
+        <v>0</v>
+      </c>
+      <c r="E113" s="13"/>
+      <c r="F113" s="13"/>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A114" s="12">
+        <v>36</v>
+      </c>
+      <c r="B114" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C114" s="13">
+        <v>427</v>
+      </c>
+      <c r="D114" s="13">
+        <v>0.7</v>
+      </c>
+      <c r="E114" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="F114" s="13" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A115" s="6">
+        <v>186</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="C115" s="7">
+        <v>0</v>
+      </c>
+      <c r="D115" s="7">
+        <v>0</v>
+      </c>
+      <c r="E115" s="7"/>
+      <c r="F115" s="7"/>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A116" s="6">
+        <v>124</v>
+      </c>
+      <c r="B116" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C116" s="7">
+        <v>1</v>
+      </c>
+      <c r="D116" s="7">
+        <v>0</v>
+      </c>
+      <c r="E116" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="F116" s="7" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A117" s="6">
+        <v>71</v>
+      </c>
+      <c r="B117" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C117" s="7">
+        <v>57</v>
+      </c>
+      <c r="D117" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="E117" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="F117" s="7" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A118" s="6">
+        <v>72</v>
+      </c>
+      <c r="B118" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C118" s="7">
+        <v>57</v>
+      </c>
+      <c r="D118" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="E118" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="F118" s="7" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A119" s="6">
+        <v>102</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C119" s="7">
+        <v>6</v>
+      </c>
+      <c r="D119" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="E119" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="F119" s="7" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A120" s="6">
+        <v>99</v>
+      </c>
+      <c r="B120" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C120" s="7">
+        <v>7</v>
+      </c>
+      <c r="D120" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="E120" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="F120" s="7" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A121" s="6">
+        <v>97</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C121" s="7">
+        <v>8</v>
+      </c>
+      <c r="D121" s="7">
+        <v>0.01</v>
+      </c>
+      <c r="E121" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="F121" s="7" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A122" s="6">
+        <v>31</v>
+      </c>
+      <c r="B122" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C122" s="7">
+        <v>1447</v>
+      </c>
+      <c r="D122" s="7">
+        <v>2.39</v>
+      </c>
+      <c r="E122" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="F122" s="7" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A123" s="6">
+        <v>115</v>
+      </c>
+      <c r="B123" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C123" s="7">
+        <v>2</v>
+      </c>
+      <c r="D123" s="7">
+        <v>0</v>
+      </c>
+      <c r="E123" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="F123" s="7" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A124" s="6">
+        <v>161</v>
+      </c>
+      <c r="B124" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C124" s="7">
+        <v>0</v>
+      </c>
+      <c r="D124" s="7">
+        <v>0</v>
+      </c>
+      <c r="E124" s="7"/>
+      <c r="F124" s="7"/>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A125" s="6">
+        <v>187</v>
+      </c>
+      <c r="B125" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="C125" s="7">
+        <v>0</v>
+      </c>
+      <c r="D125" s="7">
+        <v>0</v>
+      </c>
+      <c r="E125" s="7"/>
+      <c r="F125" s="7"/>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A126" s="6">
+        <v>120</v>
+      </c>
+      <c r="B126" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C126" s="7">
+        <v>1</v>
+      </c>
+      <c r="D126" s="7">
+        <v>0</v>
+      </c>
+      <c r="E126" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="F126" s="7" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A127" s="6">
+        <v>7</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C127" s="7">
+        <v>58889</v>
+      </c>
+      <c r="D127" s="7">
+        <v>97.15</v>
+      </c>
+      <c r="E127" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F127" s="7" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A128" s="6">
+        <v>13</v>
+      </c>
+      <c r="B128" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C128" s="7">
+        <v>50414</v>
+      </c>
+      <c r="D128" s="7">
+        <v>83.17</v>
+      </c>
+      <c r="E128" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F128" s="7" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A129" s="6">
+        <v>6</v>
+      </c>
+      <c r="B129" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C129" s="7">
+        <v>58925</v>
+      </c>
+      <c r="D129" s="7">
+        <v>97.21</v>
+      </c>
+      <c r="E129" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F129" s="7" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A130" s="6">
+        <v>140</v>
+      </c>
+      <c r="B130" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C130" s="7">
+        <v>0</v>
+      </c>
+      <c r="D130" s="7">
+        <v>0</v>
+      </c>
+      <c r="E130" s="7"/>
+      <c r="F130" s="7"/>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A131" s="6">
+        <v>142</v>
+      </c>
+      <c r="B131" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C131" s="7">
+        <v>0</v>
+      </c>
+      <c r="D131" s="7">
+        <v>0</v>
+      </c>
+      <c r="E131" s="7"/>
+      <c r="F131" s="7"/>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A132" s="6">
+        <v>153</v>
+      </c>
+      <c r="B132" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C132" s="7">
+        <v>0</v>
+      </c>
+      <c r="D132" s="7">
+        <v>0</v>
+      </c>
+      <c r="E132" s="7"/>
+      <c r="F132" s="7"/>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A133" s="6">
+        <v>188</v>
+      </c>
+      <c r="B133" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="C133" s="7">
+        <v>0</v>
+      </c>
+      <c r="D133" s="7">
+        <v>0</v>
+      </c>
+      <c r="E133" s="7"/>
+      <c r="F133" s="7"/>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A134" s="6">
+        <v>189</v>
+      </c>
+      <c r="B134" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="C134" s="7">
+        <v>0</v>
+      </c>
+      <c r="D134" s="7">
+        <v>0</v>
+      </c>
+      <c r="E134" s="7"/>
+      <c r="F134" s="7"/>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A135" s="6">
+        <v>190</v>
+      </c>
+      <c r="B135" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="C135" s="7">
+        <v>0</v>
+      </c>
+      <c r="D135" s="7">
+        <v>0</v>
+      </c>
+      <c r="E135" s="7"/>
+      <c r="F135" s="7"/>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A136" s="6">
+        <v>162</v>
+      </c>
+      <c r="B136" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="C136" s="7">
+        <v>0</v>
+      </c>
+      <c r="D136" s="7">
+        <v>0</v>
+      </c>
+      <c r="E136" s="7"/>
+      <c r="F136" s="7"/>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A137" s="6">
+        <v>191</v>
+      </c>
+      <c r="B137" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="C137" s="7">
+        <v>0</v>
+      </c>
+      <c r="D137" s="7">
+        <v>0</v>
+      </c>
+      <c r="E137" s="7"/>
+      <c r="F137" s="7"/>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A138" s="6">
+        <v>192</v>
+      </c>
+      <c r="B138" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="C138" s="7">
+        <v>0</v>
+      </c>
+      <c r="D138" s="7">
+        <v>0</v>
+      </c>
+      <c r="E138" s="7"/>
+      <c r="F138" s="7"/>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A139" s="6">
+        <v>60</v>
+      </c>
+      <c r="B139" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C139" s="7">
+        <v>132</v>
+      </c>
+      <c r="D139" s="7">
+        <v>0.22</v>
+      </c>
+      <c r="E139" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="F139" s="7" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A140" s="6">
+        <v>64</v>
+      </c>
+      <c r="B140" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C140" s="7">
+        <v>118</v>
+      </c>
+      <c r="D140" s="7">
+        <v>0.19</v>
+      </c>
+      <c r="E140" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="F140" s="7" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A141" s="6">
+        <v>61</v>
+      </c>
+      <c r="B141" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C141" s="7">
+        <v>132</v>
+      </c>
+      <c r="D141" s="7">
+        <v>0.22</v>
+      </c>
+      <c r="E141" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F141" s="7" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A142" s="6">
+        <v>133</v>
+      </c>
+      <c r="B142" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C142" s="7">
+        <v>1</v>
+      </c>
+      <c r="D142" s="7">
+        <v>0</v>
+      </c>
+      <c r="E142" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="F142" s="7" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A143" s="6">
+        <v>73</v>
+      </c>
+      <c r="B143" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C143" s="7">
+        <v>56</v>
+      </c>
+      <c r="D143" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="E143" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="F143" s="7" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A144" s="6">
+        <v>74</v>
+      </c>
+      <c r="B144" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C144" s="7">
+        <v>56</v>
+      </c>
+      <c r="D144" s="7">
+        <v>0.09</v>
+      </c>
+      <c r="E144" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="F144" s="7" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A145" s="6">
+        <v>145</v>
+      </c>
+      <c r="B145" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C145" s="7">
+        <v>0</v>
+      </c>
+      <c r="D145" s="7">
+        <v>0</v>
+      </c>
+      <c r="E145" s="7"/>
+      <c r="F145" s="7"/>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A146" s="6">
+        <v>41</v>
+      </c>
+      <c r="B146" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C146" s="7">
+        <v>371</v>
+      </c>
+      <c r="D146" s="7">
+        <v>0.61</v>
+      </c>
+      <c r="E146" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F146" s="7" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A147" s="6">
+        <v>42</v>
+      </c>
+      <c r="B147" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C147" s="7">
+        <v>370</v>
+      </c>
+      <c r="D147" s="7">
+        <v>0.61</v>
+      </c>
+      <c r="E147" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="F147" s="7" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A148" s="8">
+        <v>134</v>
+      </c>
+      <c r="B148" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C148" s="9">
+        <v>1</v>
+      </c>
+      <c r="D148" s="9">
+        <v>0</v>
+      </c>
+      <c r="E148" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="F148" s="9" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A149" s="8">
+        <v>163</v>
+      </c>
+      <c r="B149" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="C149" s="9">
+        <v>0</v>
+      </c>
+      <c r="D149" s="9">
+        <v>0</v>
+      </c>
+      <c r="E149" s="9"/>
+      <c r="F149" s="9"/>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A150" s="8">
+        <v>12</v>
+      </c>
+      <c r="B150" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C150" s="9">
+        <v>56892</v>
+      </c>
+      <c r="D150" s="9">
+        <v>93.85</v>
+      </c>
+      <c r="E150" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="F150" s="9" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A151" s="8">
+        <v>66</v>
+      </c>
+      <c r="B151" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C151" s="9">
+        <v>101</v>
+      </c>
+      <c r="D151" s="9">
+        <v>0.17</v>
+      </c>
+      <c r="E151" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="F151" s="9" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A152" s="8">
+        <v>193</v>
+      </c>
+      <c r="B152" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="C152" s="9">
+        <v>0</v>
+      </c>
+      <c r="D152" s="9">
+        <v>0</v>
+      </c>
+      <c r="E152" s="9"/>
+      <c r="F152" s="9"/>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A153" s="8">
+        <v>67</v>
+      </c>
+      <c r="B153" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C153" s="9">
+        <v>82</v>
+      </c>
+      <c r="D153" s="9">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E153" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="F153" s="9" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A154" s="14">
+        <v>1</v>
+      </c>
+      <c r="B154" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C154" s="15">
+        <v>59537</v>
+      </c>
+      <c r="D154" s="15">
+        <v>98.22</v>
+      </c>
+      <c r="E154" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="F154" s="15" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A155" s="14">
+        <v>50</v>
+      </c>
+      <c r="B155" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C155" s="15">
+        <v>179</v>
+      </c>
+      <c r="D155" s="15">
+        <v>0.3</v>
+      </c>
+      <c r="E155" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="F155" s="15" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A156" s="14">
+        <v>37</v>
+      </c>
+      <c r="B156" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C156" s="15">
+        <v>427</v>
+      </c>
+      <c r="D156" s="15">
+        <v>0.7</v>
+      </c>
+      <c r="E156" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="F156" s="15" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A157" s="1">
+        <v>194</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C157" s="2">
+        <v>0</v>
+      </c>
+      <c r="D157" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A158" s="1">
+        <v>195</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C158" s="2">
+        <v>0</v>
+      </c>
+      <c r="D158" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A159" s="1">
+        <v>196</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C159" s="2">
+        <v>0</v>
+      </c>
+      <c r="D159" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A160" s="1">
+        <v>63</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C160" s="2">
+        <v>128</v>
+      </c>
+      <c r="D160" s="2">
+        <v>0.21</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A161" s="1">
+        <v>84</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C161" s="2">
+        <v>31</v>
+      </c>
+      <c r="D161" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A162" s="1">
+        <v>85</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C162" s="2">
+        <v>31</v>
+      </c>
+      <c r="D162" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A163" s="1">
+        <v>107</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C163" s="2">
+        <v>3</v>
+      </c>
+      <c r="D163" s="2">
+        <v>0</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A164" s="1">
+        <v>108</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C164" s="2">
+        <v>3</v>
+      </c>
+      <c r="D164" s="2">
+        <v>0</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A165" s="1">
+        <v>105</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C165" s="2">
+        <v>4</v>
+      </c>
+      <c r="D165" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A166" s="1">
+        <v>106</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C166" s="2">
+        <v>4</v>
+      </c>
+      <c r="D166" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A167" s="1">
+        <v>80</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C167" s="2">
+        <v>33</v>
+      </c>
+      <c r="D167" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A168" s="1">
+        <v>81</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C168" s="2">
+        <v>33</v>
+      </c>
+      <c r="D168" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A169" s="1">
+        <v>135</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C169" s="2">
+        <v>1</v>
+      </c>
+      <c r="D169" s="2">
+        <v>0</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A170" s="1">
+        <v>136</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C170" s="2">
+        <v>1</v>
+      </c>
+      <c r="D170" s="2">
+        <v>0</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A171" s="1">
+        <v>137</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C171" s="2">
+        <v>1</v>
+      </c>
+      <c r="D171" s="2">
+        <v>0</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A172" s="1">
+        <v>138</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C172" s="2">
+        <v>1</v>
+      </c>
+      <c r="D172" s="2">
+        <v>0</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A173" s="1">
+        <v>69</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C173" s="2">
+        <v>70</v>
+      </c>
+      <c r="D173" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="F173" s="2" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A174" s="1">
+        <v>70</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C174" s="2">
+        <v>69</v>
+      </c>
+      <c r="D174" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="F174" s="2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A175" s="1">
+        <v>116</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C175" s="2">
+        <v>2</v>
+      </c>
+      <c r="D175" s="2">
+        <v>0</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="F175" s="2" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A176" s="1">
+        <v>117</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C176" s="2">
+        <v>2</v>
+      </c>
+      <c r="D176" s="2">
+        <v>0</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A177" s="1">
+        <v>91</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C177" s="2">
+        <v>17</v>
+      </c>
+      <c r="D177" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="F177" s="2" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A178" s="1">
+        <v>197</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C178" s="2">
+        <v>0</v>
+      </c>
+      <c r="D178" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A179" s="1">
+        <v>198</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C179" s="2">
+        <v>0</v>
+      </c>
+      <c r="D179" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A180" s="1">
+        <v>93</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C180" s="2">
+        <v>15</v>
+      </c>
+      <c r="D180" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="F180" s="2" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A181" s="1">
+        <v>164</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C181" s="2">
+        <v>0</v>
+      </c>
+      <c r="D181" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A182" s="1">
+        <v>139</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C182" s="2">
+        <v>0</v>
+      </c>
+      <c r="D182" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A183" s="1">
+        <v>199</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C183" s="2">
+        <v>0</v>
+      </c>
+      <c r="D183" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A184" s="1">
+        <v>52</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C184" s="2">
+        <v>154</v>
+      </c>
+      <c r="D184" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A185" s="1">
+        <v>17</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C185" s="2">
+        <v>13434</v>
+      </c>
+      <c r="D185" s="2">
+        <v>22.16</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A186" s="1">
+        <v>27</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C186" s="2">
+        <v>5525</v>
+      </c>
+      <c r="D186" s="2">
+        <v>9.11</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A187" s="1">
+        <v>26</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C187" s="2">
+        <v>5827</v>
+      </c>
+      <c r="D187" s="2">
+        <v>9.61</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A188" s="1">
+        <v>14</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C188" s="2">
+        <v>27411</v>
+      </c>
+      <c r="D188" s="2">
+        <v>45.22</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A189" s="1">
+        <v>19</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C189" s="2">
+        <v>11109</v>
+      </c>
+      <c r="D189" s="2">
+        <v>18.329999999999998</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="F189" s="2" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A190" s="1">
+        <v>29</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C190" s="2">
+        <v>3265</v>
+      </c>
+      <c r="D190" s="2">
+        <v>5.39</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="F190" s="2" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A191" s="1">
+        <v>30</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C191" s="2">
+        <v>1582</v>
+      </c>
+      <c r="D191" s="2">
+        <v>2.61</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="F191" s="2" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A192" s="1">
+        <v>23</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C192" s="2">
+        <v>7081</v>
+      </c>
+      <c r="D192" s="2">
+        <v>11.68</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A193" s="1">
+        <v>35</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C193" s="2">
+        <v>819</v>
+      </c>
+      <c r="D193" s="2">
+        <v>1.35</v>
+      </c>
+      <c r="E193" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="F193" s="2" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A194" s="1">
+        <v>18</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C194" s="2">
+        <v>12689</v>
+      </c>
+      <c r="D194" s="2">
+        <v>20.93</v>
+      </c>
+      <c r="E194" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="F194" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A195" s="1">
+        <v>34</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C195" s="2">
+        <v>821</v>
+      </c>
+      <c r="D195" s="2">
+        <v>1.35</v>
+      </c>
+      <c r="E195" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="F195" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A196" s="1">
+        <v>32</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C196" s="2">
+        <v>959</v>
+      </c>
+      <c r="D196" s="2">
+        <v>1.58</v>
+      </c>
+      <c r="E196" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F196" s="2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A197" s="1">
+        <v>20</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C197" s="2">
+        <v>8778</v>
+      </c>
+      <c r="D197" s="2">
+        <v>14.48</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="F197" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A198" s="1">
+        <v>22</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C198" s="2">
+        <v>8134</v>
+      </c>
+      <c r="D198" s="2">
+        <v>13.42</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A199" s="1">
+        <v>28</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C199" s="2">
+        <v>3438</v>
+      </c>
+      <c r="D199" s="2">
+        <v>5.67</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F199" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A200" s="1">
+        <v>125</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C200" s="2">
+        <v>1</v>
+      </c>
+      <c r="D200" s="2">
+        <v>0</v>
+      </c>
+      <c r="E200" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A201" s="1">
+        <v>200</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C201" s="2">
+        <v>0</v>
+      </c>
+      <c r="D201" s="2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F201">
+    <sortCondition ref="B2:B201"/>
+  </sortState>
+  <conditionalFormatting sqref="D2:D201">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{CC309D40-E3A3-4F37-AC52-A4E294F4BA7F}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <printOptions horizontalCentered="1" gridLines="1"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{CC309D40-E3A3-4F37-AC52-A4E294F4BA7F}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D2:D201</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B78F306A-0A2C-4EE5-BE87-ECFE90FDA64E}">
   <dimension ref="A1:F201"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="E160" sqref="E160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/Data/subject_list.xlsx
+++ b/Data/subject_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\pc\Dokumenter\PhD\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{765C91CF-098E-4056-BD7B-88CFED2D4994}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F88F5FFC-8B1B-4486-82E7-A3B7DD494E5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23016" yWindow="5016" windowWidth="23016" windowHeight="12336" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="by student count" sheetId="1" r:id="rId1"/>
@@ -5561,8 +5561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86535E3C-402E-45BA-B91F-5268FA910A2C}">
   <dimension ref="A1:F201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="E103" sqref="E103"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E100" sqref="E100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
